--- a/data/pedidos.xlsx
+++ b/data/pedidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\i9 Consultoria\pcp_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47A2DA1-0190-4CC6-9D69-DC36CD44FBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D2D2AA-F1FB-46A2-B2BE-02B85FF52207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{212F9566-E9B4-4723-8E4F-2D51FDBE4104}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="21600" windowHeight="11295" xr2:uid="{212F9566-E9B4-4723-8E4F-2D51FDBE4104}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>data_prometida</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>A</t>
   </si>
@@ -47,46 +44,34 @@
     <t>B</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>P01</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>P02</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>P03</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>P04</t>
-  </si>
-  <si>
-    <t>P05</t>
-  </si>
-  <si>
-    <t>P06</t>
-  </si>
-  <si>
     <t>recurso</t>
   </si>
   <si>
     <t>pedido</t>
   </si>
   <si>
-    <t>tempo_proc</t>
-  </si>
-  <si>
     <t>data_entrega</t>
+  </si>
+  <si>
+    <t>produto</t>
+  </si>
+  <si>
+    <t>CNC_1</t>
+  </si>
+  <si>
+    <t>CNC_2</t>
+  </si>
+  <si>
+    <t>quantidade</t>
+  </si>
+  <si>
+    <t>tempo_processamento</t>
   </si>
 </sst>
 </file>
@@ -130,11 +115,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -142,7 +124,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3991EA-5F42-4CE5-BB9F-D2139179D603}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,126 +474,88 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45575</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
-        <v>46058</v>
-      </c>
-      <c r="E2" s="4">
-        <v>46057</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>46056</v>
-      </c>
-      <c r="E3" s="4">
-        <v>46056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>46057</v>
-      </c>
-      <c r="E4" s="4">
-        <v>46058</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>45689</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4">
-        <v>45691</v>
-      </c>
-      <c r="E6" s="4">
-        <v>45692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4">
-        <v>45690</v>
-      </c>
-      <c r="E7" s="4">
-        <v>45693</v>
+      <c r="D4" s="2">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45573</v>
       </c>
     </row>
   </sheetData>
